--- a/biology/Botanique/Paphinia_hirtzii/Paphinia_hirtzii.xlsx
+++ b/biology/Botanique/Paphinia_hirtzii/Paphinia_hirtzii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia hirtzii est une espèce d'orchidée appartenant à la sous-tribu des Stanhopeinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante a été trouvée en compagnie de Paphinia benzingii et Paphinia litensis. La présence de 3 espèces de Paphinia suggère que leurs pollinisateurs, les abeilles euglossines mâles, sont attirées de manière spécifique et participent à maintenir l’intégrité des espèces.
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nommée en l’honneur de l’ingénieur Alex Hirtz pour sa contribution à la connaissance des orchidées d’Equateur.
 </t>
@@ -573,7 +589,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Species haec Paphiniae cristatae Lindl. similis, sed sepalis petalisque laete luteis rufomaculatis, labello basi angusto cum lobo apicali lato pauciciliato distinguitur.
 Dodson, Icones Plantarum Tropicarum, ser. II pl. 566. 1989.</t>
@@ -604,7 +622,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante type a été découvert en août 1988 dans la province équatorienne d'Esmeraldas, à 8 km de Chaco sur la route de Santa Rosa de Chaco à 1 400 m d'altitude. La région où la plante a été trouvée est extrêmement humide avec plus de 6 000 mm de précipitations annuelles. La flore de cette région est la continuité de la forêt pluviale de piémont de la province de Chocó en Colombie.
 </t>
@@ -635,7 +655,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune information disponible.
 </t>
